--- a/src/main/resources/FullPathIncorrectLoan.xlsx
+++ b/src/main/resources/FullPathIncorrectLoan.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27230"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D1D92BB-299C-485B-8888-5AC28AC46842}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519F8D26-8674-401B-819E-460128FED57A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ver" sheetId="2" r:id="rId1"/>
-    <sheet name="in" sheetId="1" r:id="rId2"/>
+    <sheet name="in" sheetId="1" r:id="rId1"/>
+    <sheet name="ver" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -491,6 +491,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123321</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9231</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15523</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>512386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3">
+        <v>412131</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4042</v>
+      </c>
+      <c r="F3" s="3">
+        <v>123141</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3">
+        <v>32032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123141231</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4123</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2341241</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>412341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>212341</v>
+      </c>
+      <c r="E5" s="1">
+        <v>204203</v>
+      </c>
+      <c r="F5" s="1">
+        <v>41231</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1241231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4123</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2341241</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>412341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>212341</v>
+      </c>
+      <c r="E7" s="3">
+        <v>231</v>
+      </c>
+      <c r="F7" s="3">
+        <v>41231</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1241231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>412131</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1111</v>
+      </c>
+      <c r="F8" s="1">
+        <v>123141</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>32032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC42BBDE-487E-4242-AB43-0E07BD9885A0}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -690,234 +920,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>123321</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9231</v>
-      </c>
-      <c r="F2" s="1">
-        <v>15523</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3">
-        <v>412131</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4042</v>
-      </c>
-      <c r="F3" s="3">
-        <v>123141</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3">
-        <v>32032</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>123141231</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4123</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2341241</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1">
-        <v>412341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>212341</v>
-      </c>
-      <c r="E5" s="1">
-        <v>204203</v>
-      </c>
-      <c r="F5" s="1">
-        <v>41231</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1241231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4123</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2341241</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1">
-        <v>412341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3">
-        <v>212341</v>
-      </c>
-      <c r="E7" s="3">
-        <v>231</v>
-      </c>
-      <c r="F7" s="3">
-        <v>41231</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1241231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1">
-        <v>412131</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1111</v>
-      </c>
-      <c r="F8" s="1">
-        <v>123141</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1">
-        <v>32032</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>